--- a/通话记录.xlsx
+++ b/通话记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,11 @@
   </si>
   <si>
     <t>触发器、进程以及快乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于工作、学习态度的交流。
+关键词：虚心，情绪化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,18 +86,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -102,7 +101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -130,17 +129,23 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,17 +519,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -543,7 +549,7 @@
       <c r="A2" s="3">
         <v>42360.861851851849</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>4</v>
       </c>
     </row>
@@ -551,7 +557,7 @@
       <c r="A3" s="3">
         <v>42361.906770833331</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>55</v>
       </c>
     </row>
@@ -559,7 +565,7 @@
       <c r="A4" s="3">
         <v>42362.962731481479</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>32</v>
       </c>
     </row>
@@ -578,7 +584,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>92</v>
       </c>
     </row>
@@ -602,6 +608,17 @@
       </c>
       <c r="C8" s="1">
         <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42439.036620370367</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/通话记录.xlsx
+++ b/通话记录.xlsx
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -621,6 +621,14 @@
         <v>74</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42440.386666666665</v>
+      </c>
+      <c r="C10" s="1">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
